--- a/Design/战斗系统.xlsx
+++ b/Design/战斗系统.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\BigRouge\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07CD99-BB9F-4CF5-8320-F50DBF53EE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475814CC-FBAA-46C8-A10F-DEA18B3954B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{15222238-EE50-4317-B77C-CC467130E81A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{15222238-EE50-4317-B77C-CC467130E81A}"/>
   </bookViews>
   <sheets>
     <sheet name="属性定义" sheetId="1" r:id="rId1"/>
+    <sheet name="Charactor" sheetId="2" r:id="rId2"/>
+    <sheet name="AvatarTemplate" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>#AttributeInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +117,90 @@
   </si>
   <si>
     <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVATARID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EARS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HORNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAINHAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFHAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,12 +223,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,8 +251,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB8A3C5-0F2A-4070-8246-2E7420D9D6B0}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,4 +739,1959 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF73F3AC-9B9A-449C-A086-2745D1C50E36}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20CA996-3DE2-4879-899C-22A95971080A}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="A1:L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12023</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>42008</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12001</v>
+      </c>
+      <c r="C3">
+        <v>20001</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>42046</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>50010</v>
+      </c>
+      <c r="H3">
+        <v>70009</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12002</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>12021</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12022</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FC8088-D8F4-4AE5-9982-573BF1F0828D}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="16" width="5.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>COLUMN()&amp;","&amp;ROW()</f>
+        <v>1,1</v>
+      </c>
+      <c r="B1" t="str">
+        <f t="shared" ref="B1:P16" si="0">COLUMN()&amp;","&amp;ROW()</f>
+        <v>2,1</v>
+      </c>
+      <c r="C1" t="str">
+        <f t="shared" si="0"/>
+        <v>3,1</v>
+      </c>
+      <c r="D1" t="str">
+        <f t="shared" si="0"/>
+        <v>4,1</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" si="0"/>
+        <v>5,1</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" si="0"/>
+        <v>6,1</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" si="0"/>
+        <v>7,1</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>8,1</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>9,1</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>10,1</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>11,1</v>
+      </c>
+      <c r="L1" t="str">
+        <f t="shared" si="0"/>
+        <v>12,1</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" si="0"/>
+        <v>13,1</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>14,1</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>15,1</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>16,1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:P25" si="1">COLUMN()&amp;","&amp;ROW()</f>
+        <v>1,2</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" si="0"/>
+        <v>2,2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" si="0"/>
+        <v>3,2</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" si="0"/>
+        <v>4,2</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>5,2</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v>6,2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>7,2</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v>8,2</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>9,2</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="0"/>
+        <v>10,2</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" si="0"/>
+        <v>11,2</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" si="0"/>
+        <v>12,2</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" si="0"/>
+        <v>13,2</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" si="0"/>
+        <v>14,2</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" si="0"/>
+        <v>15,2</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" si="0"/>
+        <v>16,2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" si="1"/>
+        <v>1,3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>3,3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>4,3</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5,3</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>6,3</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>7,3</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>8,3</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>9,3</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>10,3</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>11,3</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>12,3</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>13,3</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>14,3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>15,3</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>16,3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>1,4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,4</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5,4</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6,4</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>7,4</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>8,4</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>9,4</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>10,4</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>11,4</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>12,4</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>13,4</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>14,4</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>15,4</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>16,4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>1,5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>2,5</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3,5</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4,5</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5,5</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6,5</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7,5</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>8,5</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>9,5</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>10,5</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>11,5</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>12,5</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>13,5</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>14,5</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>15,5</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>16,5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>1,6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>2,6</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>3,6</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4,6</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5,6</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>6,6</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>7,6</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>8,6</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>9,6</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>10,6</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>11,6</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,6</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>13,6</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>14,6</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>15,6</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>16,6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>1,7</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>2,7</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>3,7</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>4,7</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5,7</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>6,7</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>7,7</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>9,7</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>10,7</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>11,7</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>12,7</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>13,7</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>14,7</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>15,7</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>16,7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>1,8</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>2,8</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>3,8</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>4,8</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>5,8</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>6,8</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>7,8</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>8,8</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>9,8</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>10,8</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>11,8</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>12,8</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>13,8</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>14,8</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>15,8</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>16,8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>1,9</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>2,9</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>3,9</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>4,9</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>5,9</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>6,9</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>7,9</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>8,9</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>9,9</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>10,9</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>11,9</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>12,9</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>13,9</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>14,9</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>15,9</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>16,9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>1,10</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>2,10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>3,10</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>4,10</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>5,10</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>6,10</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>7,10</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>8,10</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>9,10</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>10,10</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>11,10</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>12,10</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>13,10</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>14,10</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>15,10</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>16,10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>1,11</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>2,11</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>3,11</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>4,11</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>5,11</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>6,11</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>7,11</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>8,11</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>9,11</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>10,11</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>11,11</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>12,11</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>13,11</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>14,11</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>15,11</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>16,11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>1,12</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>2,12</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>3,12</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>4,12</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>5,12</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>6,12</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>7,12</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>8,12</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>9,12</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>10,12</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>11,12</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>12,12</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>13,12</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>14,12</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>15,12</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>16,12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>1,13</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>2,13</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>3,13</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>4,13</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>5,13</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>6,13</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>7,13</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>8,13</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>9,13</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>10,13</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>11,13</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>13,13</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>14,13</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>15,13</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>16,13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>1,14</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>2,14</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>3,14</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>4,14</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>5,14</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>6,14</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>7,14</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>8,14</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>9,14</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>10,14</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>11,14</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>12,14</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>13,14</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>14,14</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>15,14</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>16,14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>1,15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>2,15</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>3,15</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>4,15</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>5,15</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>6,15</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>7,15</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>8,15</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>9,15</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>10,15</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>11,15</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>12,15</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>13,15</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>14,15</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>15,15</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>16,15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>1,16</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>2,16</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>3,16</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>4,16</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>5,16</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>6,16</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>7,16</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>8,16</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>9,16</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>10,16</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>11,16</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>12,16</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>13,16</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>14,16</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>15,16</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>16,16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>1,17</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>2,17</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>3,17</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>4,17</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>5,17</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>6,17</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>7,17</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>8,17</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>9,17</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>10,17</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>11,17</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>12,17</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>13,17</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>14,17</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>15,17</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>16,17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>1,18</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>2,18</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>3,18</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>4,18</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>5,18</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>6,18</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>7,18</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>8,18</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>9,18</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>10,18</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>11,18</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>12,18</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>13,18</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>14,18</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>15,18</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>16,18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>1,19</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>2,19</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>3,19</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>4,19</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>5,19</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>6,19</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>7,19</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>8,19</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>9,19</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>10,19</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>11,19</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>12,19</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>13,19</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>14,19</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>15,19</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>16,19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>1,20</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>2,20</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>3,20</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>4,20</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>5,20</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>6,20</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>7,20</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>8,20</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>9,20</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>10,20</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>11,20</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>12,20</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>13,20</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>14,20</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>15,20</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>16,20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>1,21</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>2,21</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>3,21</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>4,21</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>5,21</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>6,21</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>7,21</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>8,21</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>9,21</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>10,21</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>11,21</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>12,21</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>13,21</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>14,21</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>15,21</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>16,21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>1,22</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>2,22</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>3,22</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>4,22</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>5,22</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>6,22</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>7,22</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>8,22</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>9,22</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>10,22</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>11,22</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>12,22</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>13,22</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>14,22</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>15,22</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>16,22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>1,23</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>2,23</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>3,23</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>4,23</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>5,23</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>6,23</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>7,23</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>8,23</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>9,23</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>10,23</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>11,23</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>12,23</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>13,23</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>14,23</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>15,23</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>16,23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>1,24</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>2,24</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>3,24</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>4,24</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>5,24</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>6,24</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>7,24</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>8,24</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>9,24</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>10,24</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>11,24</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>12,24</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>13,24</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>14,24</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="1"/>
+        <v>15,24</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>16,24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>1,25</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>2,25</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>3,25</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>4,25</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>5,25</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>6,25</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>7,25</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>8,25</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>9,25</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>10,25</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>11,25</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>12,25</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>13,25</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>14,25</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>15,25</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>16,25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/战斗系统.xlsx
+++ b/Design/战斗系统.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\BigRouge\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475814CC-FBAA-46C8-A10F-DEA18B3954B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5761C8B-7A87-4FA9-BF40-5D26B37D6D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{15222238-EE50-4317-B77C-CC467130E81A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{15222238-EE50-4317-B77C-CC467130E81A}"/>
   </bookViews>
   <sheets>
     <sheet name="属性定义" sheetId="1" r:id="rId1"/>
-    <sheet name="Charactor" sheetId="2" r:id="rId2"/>
+    <sheet name="CharacterInfo" sheetId="2" r:id="rId2"/>
     <sheet name="AvatarTemplate" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>#AttributeInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,14 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +193,66 @@
   </si>
   <si>
     <t>怪4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVERANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACKRANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CharacterInfoRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施瓦辛格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮先生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,10 +327,50 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAAAB1A5-89F4-498D-89F7-2E33164193E1}" name="表1" displayName="表1" ref="B3:P5" totalsRowShown="0">
+  <autoFilter ref="B3:P5" xr:uid="{AF88C2F2-C948-41DC-B0D5-2DA5A50FC39D}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{A338A624-E51A-47E1-9715-19AEC17D5234}" name="//ID"/>
+    <tableColumn id="2" xr3:uid="{262CBDCC-CEA7-4CEA-9413-457065DE8A6F}" name="NAME"/>
+    <tableColumn id="3" xr3:uid="{0130F871-415B-4519-B364-750AC592D0BB}" name="AVATARID"/>
+    <tableColumn id="4" xr3:uid="{BED65DA0-52AB-4810-A68C-F406F20FA74C}" name="RACE"/>
+    <tableColumn id="5" xr3:uid="{F1509D58-A4BE-4700-890E-93481CE4A171}" name="MOVERANGE"/>
+    <tableColumn id="6" xr3:uid="{C8F14ADC-D689-4308-ABE3-56A2EA3CD8AA}" name="ATTACKRANGE"/>
+    <tableColumn id="8" xr3:uid="{21A5568E-BFB4-43F8-A3DF-A70A73C0A122}" name="LEVEL"/>
+    <tableColumn id="9" xr3:uid="{5D6DF3A9-6F22-4156-8DD2-94B563DE5E55}" name="CHART"/>
+    <tableColumn id="7" xr3:uid="{46582F7E-ABE7-4678-A521-989DA4FF3341}" name="SPEED"/>
+    <tableColumn id="10" xr3:uid="{64D3717D-CD37-48C4-A5B2-8097012B75E7}" name="ATK"/>
+    <tableColumn id="15" xr3:uid="{454564BE-3ECE-4798-AF75-8DBC76A6B1A1}" name="HP"/>
+    <tableColumn id="11" xr3:uid="{634E2266-EB85-4C06-8703-3C390139B664}" name="DEF"/>
+    <tableColumn id="12" xr3:uid="{4FD2ED7D-BB3F-45DE-8C9E-C90067B73F4C}" name="STR"/>
+    <tableColumn id="13" xr3:uid="{3C2F69DF-1C5C-47C6-8781-781CBF535BAB}" name="INT"/>
+    <tableColumn id="14" xr3:uid="{E2922404-5A7B-490D-BDF8-D3C808974224}" name="DEX"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="大都市">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="大都市">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,48 +378,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="162F33"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EAF0E0"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="50B4C8"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="A8B97F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9B9256"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="657689"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="7A855D"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="84AC9D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="2370CD"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="877589"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="大都市">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -351,39 +443,22 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Cans" typeface="Euphemia"/>
@@ -400,29 +475,12 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="大都市">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,76 +489,73 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="70000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="75000"/>
+                <a:satMod val="101000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="82000"/>
+                <a:satMod val="104000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
+                <a:tint val="97000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="80000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -530,33 +585,12 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -564,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Metropolitan" id="{4C5440D6-04D2-4954-96CF-F251137069B2}" vid="{79CFCA13-9412-4290-BB4B-85112F88857B}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,7 +609,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,45 +777,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF73F3AC-9B9A-449C-A086-2745D1C50E36}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>120</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20CA996-3DE2-4879-899C-22A95971080A}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="A1:L6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,40 +966,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -865,7 +1037,7 @@
         <v>-1</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -873,25 +1045,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12001</v>
+        <v>12023</v>
       </c>
       <c r="C3">
-        <v>20001</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>-1</v>
       </c>
       <c r="E3">
-        <v>42046</v>
+        <v>42008</v>
       </c>
       <c r="F3">
         <v>-1</v>
       </c>
       <c r="G3">
-        <v>50010</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>70009</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -903,7 +1075,7 @@
         <v>-1</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -911,25 +1083,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>20001</v>
       </c>
       <c r="D4">
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>42046</v>
       </c>
       <c r="F4">
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>50010</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>70009</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -941,7 +1113,7 @@
         <v>-1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -949,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12021</v>
+        <v>12002</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -979,7 +1151,7 @@
         <v>-1</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -987,37 +1159,75 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>12021</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>12022</v>
       </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1031,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FC8088-D8F4-4AE5-9982-573BF1F0828D}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
